--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Fzd10</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.217872</v>
+      </c>
+      <c r="H2">
+        <v>3.653616</v>
+      </c>
+      <c r="I2">
+        <v>0.4812552202382371</v>
+      </c>
+      <c r="J2">
+        <v>0.4812552202382372</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.270269</v>
-      </c>
-      <c r="H2">
-        <v>0.8108069999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.07675782952922429</v>
-      </c>
-      <c r="J2">
-        <v>0.07675782952922428</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.003092666666666667</v>
+        <v>0.085107</v>
       </c>
       <c r="N2">
-        <v>0.009278</v>
+        <v>0.255321</v>
       </c>
       <c r="O2">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P2">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q2">
-        <v>0.0008358519273333333</v>
+        <v>0.103649432304</v>
       </c>
       <c r="R2">
-        <v>0.007522667346</v>
+        <v>0.9328448907360001</v>
       </c>
       <c r="S2">
-        <v>0.0014944372820165</v>
+        <v>0.3864563333032878</v>
       </c>
       <c r="T2">
-        <v>0.0014944372820165</v>
+        <v>0.3864563333032878</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.270269</v>
+        <v>1.217872</v>
       </c>
       <c r="H3">
-        <v>0.8108069999999999</v>
+        <v>3.653616</v>
       </c>
       <c r="I3">
-        <v>0.07675782952922429</v>
+        <v>0.4812552202382371</v>
       </c>
       <c r="J3">
-        <v>0.07675782952922428</v>
+        <v>0.4812552202382372</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +614,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.085107</v>
+        <v>0.020877</v>
       </c>
       <c r="N3">
-        <v>0.255321</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q3">
-        <v>0.023001783783</v>
+        <v>0.025425513744</v>
       </c>
       <c r="R3">
-        <v>0.207016054047</v>
+        <v>0.228829623696</v>
       </c>
       <c r="S3">
-        <v>0.04112537414116564</v>
+        <v>0.09479888693494938</v>
       </c>
       <c r="T3">
-        <v>0.04112537414116563</v>
+        <v>0.09479888693494938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.270269</v>
+        <v>1.02442</v>
       </c>
       <c r="H4">
-        <v>0.8108069999999999</v>
+        <v>3.07326</v>
       </c>
       <c r="I4">
-        <v>0.07675782952922429</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="J4">
-        <v>0.07675782952922428</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +676,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03969433333333334</v>
+        <v>0.085107</v>
       </c>
       <c r="N4">
-        <v>0.119083</v>
+        <v>0.255321</v>
       </c>
       <c r="O4">
-        <v>0.249890880094011</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P4">
-        <v>0.249890880094011</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q4">
-        <v>0.01072814777566667</v>
+        <v>0.08718531294</v>
       </c>
       <c r="R4">
-        <v>0.096553329981</v>
+        <v>0.7846678164600001</v>
       </c>
       <c r="S4">
-        <v>0.01918108157516393</v>
+        <v>0.3250699555967737</v>
       </c>
       <c r="T4">
-        <v>0.01918108157516392</v>
+        <v>0.3250699555967737</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,25 +711,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.270269</v>
+        <v>1.02442</v>
       </c>
       <c r="H5">
-        <v>0.8108069999999999</v>
+        <v>3.07326</v>
       </c>
       <c r="I5">
-        <v>0.07675782952922429</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="J5">
-        <v>0.07675782952922428</v>
+        <v>0.4048105816674124</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03095266666666667</v>
+        <v>0.020877</v>
       </c>
       <c r="N5">
-        <v>0.092858</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O5">
-        <v>0.1948587736601335</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P5">
-        <v>0.1948587736601334</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q5">
-        <v>0.008365546267333332</v>
+        <v>0.02138681633999999</v>
       </c>
       <c r="R5">
-        <v>0.075289916406</v>
+        <v>0.19248134706</v>
       </c>
       <c r="S5">
-        <v>0.01495693653087822</v>
+        <v>0.07974062607063864</v>
       </c>
       <c r="T5">
-        <v>0.01495693653087822</v>
+        <v>0.07974062607063866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +782,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.02442</v>
+        <v>0.2883236666666666</v>
       </c>
       <c r="H6">
-        <v>3.07326</v>
+        <v>0.8649709999999999</v>
       </c>
       <c r="I6">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="J6">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.003092666666666667</v>
+        <v>0.085107</v>
       </c>
       <c r="N6">
-        <v>0.009278</v>
+        <v>0.255321</v>
       </c>
       <c r="O6">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P6">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q6">
-        <v>0.003168189586666667</v>
+        <v>0.024538362299</v>
       </c>
       <c r="R6">
-        <v>0.02851370628</v>
+        <v>0.220845260691</v>
       </c>
       <c r="S6">
-        <v>0.005664472952663248</v>
+        <v>0.09149114769414141</v>
       </c>
       <c r="T6">
-        <v>0.005664472952663247</v>
+        <v>0.09149114769414139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.02442</v>
+        <v>0.2883236666666666</v>
       </c>
       <c r="H7">
-        <v>3.07326</v>
+        <v>0.8649709999999999</v>
       </c>
       <c r="I7">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="J7">
-        <v>0.2909407136087674</v>
+        <v>0.1139341980943504</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,400 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.085107</v>
+        <v>0.020877</v>
       </c>
       <c r="N7">
-        <v>0.255321</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O7">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P7">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q7">
-        <v>0.08718531294000001</v>
+        <v>0.006019333188999999</v>
       </c>
       <c r="R7">
-        <v>0.7846678164600002</v>
+        <v>0.05417399870099999</v>
       </c>
       <c r="S7">
-        <v>0.1558804590156211</v>
+        <v>0.02244305040020902</v>
       </c>
       <c r="T7">
-        <v>0.1558804590156211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.02442</v>
-      </c>
-      <c r="H8">
-        <v>3.07326</v>
-      </c>
-      <c r="I8">
-        <v>0.2909407136087674</v>
-      </c>
-      <c r="J8">
-        <v>0.2909407136087674</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.119083</v>
-      </c>
-      <c r="O8">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P8">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q8">
-        <v>0.04066366895333334</v>
-      </c>
-      <c r="R8">
-        <v>0.3659730205800001</v>
-      </c>
-      <c r="S8">
-        <v>0.07270343097887449</v>
-      </c>
-      <c r="T8">
-        <v>0.07270343097887448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.02442</v>
-      </c>
-      <c r="H9">
-        <v>3.07326</v>
-      </c>
-      <c r="I9">
-        <v>0.2909407136087674</v>
-      </c>
-      <c r="J9">
-        <v>0.2909407136087674</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.092858</v>
-      </c>
-      <c r="O9">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P9">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q9">
-        <v>0.03170853078666667</v>
-      </c>
-      <c r="R9">
-        <v>0.28537677708</v>
-      </c>
-      <c r="S9">
-        <v>0.05669235066160851</v>
-      </c>
-      <c r="T9">
-        <v>0.05669235066160851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.226372</v>
-      </c>
-      <c r="H10">
-        <v>6.679116</v>
-      </c>
-      <c r="I10">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J10">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.003092666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.009278</v>
-      </c>
-      <c r="O10">
-        <v>0.019469509380115</v>
-      </c>
-      <c r="P10">
-        <v>0.01946950938011499</v>
-      </c>
-      <c r="Q10">
-        <v>0.006885426472</v>
-      </c>
-      <c r="R10">
-        <v>0.061968838248</v>
-      </c>
-      <c r="S10">
-        <v>0.01231059914543525</v>
-      </c>
-      <c r="T10">
-        <v>0.01231059914543525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.226372</v>
-      </c>
-      <c r="H11">
-        <v>6.679116</v>
-      </c>
-      <c r="I11">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J11">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.085107</v>
-      </c>
-      <c r="N11">
-        <v>0.255321</v>
-      </c>
-      <c r="O11">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="P11">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="Q11">
-        <v>0.189479841804</v>
-      </c>
-      <c r="R11">
-        <v>1.705318576236</v>
-      </c>
-      <c r="S11">
-        <v>0.3387750037089537</v>
-      </c>
-      <c r="T11">
-        <v>0.3387750037089537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2.226372</v>
-      </c>
-      <c r="H12">
-        <v>6.679116</v>
-      </c>
-      <c r="I12">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J12">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N12">
-        <v>0.119083</v>
-      </c>
-      <c r="O12">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P12">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q12">
-        <v>0.08837435229200001</v>
-      </c>
-      <c r="R12">
-        <v>0.7953691706280002</v>
-      </c>
-      <c r="S12">
-        <v>0.1580063675399726</v>
-      </c>
-      <c r="T12">
-        <v>0.1580063675399726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.226372</v>
-      </c>
-      <c r="H13">
-        <v>6.679116</v>
-      </c>
-      <c r="I13">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="J13">
-        <v>0.6323014568620083</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.092858</v>
-      </c>
-      <c r="O13">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P13">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q13">
-        <v>0.06891215039199999</v>
-      </c>
-      <c r="R13">
-        <v>0.620209353528</v>
-      </c>
-      <c r="S13">
-        <v>0.1232094864676467</v>
-      </c>
-      <c r="T13">
-        <v>0.1232094864676467</v>
+        <v>0.02244305040020903</v>
       </c>
     </row>
   </sheetData>
